--- a/RTC Documents/RTC이슈및 완료.xlsx
+++ b/RTC Documents/RTC이슈및 완료.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lee\study\Test-WebRtc\RTC Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A05C0C6-9F4C-4853-8D08-E3B08A03760A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F12D46-6D1B-4820-9159-4D9A06F2E29D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B999A838-1D08-4BBF-A85E-569F8CFFA738}"/>
   </bookViews>
@@ -1283,18 +1283,84 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1303,72 +1369,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1686,7 +1686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C998AB3B-3CE7-43CD-B034-BC71B811CA97}">
   <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:U26"/>
     </sheetView>
   </sheetViews>
@@ -1710,10 +1710,10 @@
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="53"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="7" t="s">
@@ -1838,22 +1838,22 @@
       <c r="H5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
     </row>
     <row r="6" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
@@ -1880,22 +1880,22 @@
       <c r="H6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -1922,13 +1922,13 @@
       <c r="H7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
@@ -1963,13 +1963,13 @@
       <c r="H8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
@@ -2004,21 +2004,21 @@
       <c r="H9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
       <c r="V9" s="12"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -2036,17 +2036,17 @@
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
       <c r="T10" s="12"/>
@@ -2054,24 +2054,24 @@
     </row>
     <row r="11" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="44" t="s">
+      <c r="H12" s="34" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2079,99 +2079,99 @@
       <c r="A13" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="48" t="s">
+      <c r="H13" s="37" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
-      <c r="B14" s="46" t="s">
+      <c r="A14" s="46"/>
+      <c r="B14" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="47" t="s">
+      <c r="G14" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="48" t="s">
+      <c r="H14" s="37" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="52" t="s">
+      <c r="H15" s="40" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54" t="s">
+      <c r="A16" s="47"/>
+      <c r="B16" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="56" t="s">
+      <c r="H16" s="43" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2253,185 +2253,185 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
     </row>
     <row r="24" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="38"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="28"/>
     </row>
     <row r="25" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
     </row>
     <row r="26" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
     </row>
     <row r="27" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
     </row>
     <row r="29" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
-      <c r="U29" s="39"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
     </row>
     <row r="30" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
     </row>
     <row r="31" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
@@ -2502,12 +2502,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A23:R23"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A25:U26"/>
-    <mergeCell ref="A30:N31"/>
-    <mergeCell ref="A28:U28"/>
     <mergeCell ref="I6:V6"/>
     <mergeCell ref="I7:M7"/>
     <mergeCell ref="I8:M8"/>
@@ -2515,6 +2509,12 @@
     <mergeCell ref="I10:Q10"/>
     <mergeCell ref="I9:U9"/>
     <mergeCell ref="I5:V5"/>
+    <mergeCell ref="A23:R23"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A25:U26"/>
+    <mergeCell ref="A30:N31"/>
+    <mergeCell ref="A28:U28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
